--- a/CshScript.Tests/Resourses/pdf.xlsx
+++ b/CshScript.Tests/Resourses/pdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spac-18\projects\Specialisterne_Akadamy\spac_uge4_SD\CshScript.Tests\Resourses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B2FB15-5BF6-424F-B21A-96D997177136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860C522D-0643-4B2A-A91D-46A7E917C265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
   <si>
     <t>BR50481</t>
   </si>
@@ -262,6 +262,54 @@
   </si>
   <si>
     <t>http://database.globalreporting.org/reports/bfe8fd47-dc6c-ea11-a811-000d3ab11761</t>
+  </si>
+  <si>
+    <t>BR50968</t>
+  </si>
+  <si>
+    <t>BHP</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>17-7-2018</t>
+  </si>
+  <si>
+    <t>BHP Sustainability Report 2017</t>
+  </si>
+  <si>
+    <t>KPMG</t>
+  </si>
+  <si>
+    <t>Entire sustainability report</t>
+  </si>
+  <si>
+    <t>Combination</t>
+  </si>
+  <si>
+    <t>Mining &amp; Metals</t>
+  </si>
+  <si>
+    <t>http://www.bhp.com/-/media/documents/investors/annual-reports/2017/bhpsustainabilityreportnavigator2017.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bhp.com/-/media/documents/investors/annual-reports/2017/bhpsustainabilityreport2017.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bhp.com</t>
+  </si>
+  <si>
+    <t>http://database.globalreporting.org/reports/2ee20b9b-3ea3-e711-8131-e0071b647f61</t>
   </si>
 </sst>
 </file>
@@ -590,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,11 +880,11 @@
       <c r="AJ2" t="s">
         <v>1</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="AM2" t="s">
         <v>24</v>
@@ -850,133 +898,262 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
         <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s">
         <v>12</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AM3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AM4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO4" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AL2" r:id="rId1" xr:uid="{3BDDE1C4-5F93-4B7C-B142-6D173C4C885F}"/>
+    <hyperlink ref="AK2" r:id="rId1" location="page=96" xr:uid="{32E86227-2DE4-46CB-8873-69BD2E13CE9F}"/>
+    <hyperlink ref="AL4" r:id="rId2" xr:uid="{7BA08F28-450F-43F3-AF9E-AEE6D151A941}"/>
+    <hyperlink ref="AL3" r:id="rId3" xr:uid="{A835656A-07B2-4E82-8C3A-6422B8D932AD}"/>
+    <hyperlink ref="AL2" r:id="rId4" xr:uid="{06BC57B5-7992-4C37-90D7-8B3D056E3EEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/CshScript.Tests/Resourses/pdf.xlsx
+++ b/CshScript.Tests/Resourses/pdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spac-18\projects\Specialisterne_Akadamy\spac_uge4_SD\CshScript.Tests\Resourses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D125BD7-83AC-4878-A68B-8D60F5767256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36085BA6-0EA9-4534-8BBB-7161051CC537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t>BRnum</t>
   </si>
@@ -257,12 +257,6 @@
   </si>
   <si>
     <t>http://www.bhp.com/-/media/documents/investors/annual-reports/2017/bhpsustainabilityreportnavigator2017.pdf</t>
-  </si>
-  <si>
-    <t>https://www.bhp.com/-/media/documents/investors/annual-reports/2017/bhpsustainabilityreport2017.pdf</t>
-  </si>
-  <si>
-    <t>https://www.bhp.com</t>
   </si>
   <si>
     <t>http://database.globalreporting.org/reports/2ee20b9b-3ea3-e711-8131-e0071b647f61</t>
@@ -713,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:AO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,7 +948,7 @@
         <v>42</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>63</v>
@@ -966,7 +960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1018,6 +1012,12 @@
       <c r="Q3" t="s">
         <v>55</v>
       </c>
+      <c r="R3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" t="s">
+        <v>100</v>
+      </c>
       <c r="T3" t="s">
         <v>42</v>
       </c>
@@ -1072,61 +1072,61 @@
       <c r="AK3" t="s">
         <v>78</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO3" t="s">
         <v>79</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
         <v>85</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
       </c>
       <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" t="s">
         <v>88</v>
-      </c>
-      <c r="L4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" t="s">
-        <v>90</v>
       </c>
       <c r="N4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T4" t="s">
         <v>59</v>
@@ -1150,18 +1150,18 @@
         <v>63</v>
       </c>
       <c r="AO4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -1176,22 +1176,22 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
         <v>53</v>
@@ -1200,16 +1200,16 @@
         <v>59</v>
       </c>
       <c r="P5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" t="s">
         <v>101</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" t="s">
-        <v>102</v>
-      </c>
-      <c r="S5" t="s">
-        <v>103</v>
       </c>
       <c r="T5" t="s">
         <v>42</v>
@@ -1242,7 +1242,7 @@
         <v>59</v>
       </c>
       <c r="AD5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE5" t="s">
         <v>42</v>
@@ -1263,19 +1263,19 @@
         <v>42</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AM5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AO5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
